--- a/biology/Botanique/Rocaille_(jardinage)/Rocaille_(jardinage).xlsx
+++ b/biology/Botanique/Rocaille_(jardinage)/Rocaille_(jardinage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une rocaille est un jardin qui copie de manière architecturale les jardins naturels de montagne. Elle peut être étendue ou petite, en pente ou en à plat. Elle peut se faire dans un escalier. On utilise des rochers, des plaques d'ardoises, des petits rochers, des galets, des pierres volcaniques. On peut utiliser des plantes vivaces basses et hautes, comme des arbustes dit de montagne (rhododendron alpin, azalées, saule rampant, clématite alpine, etc.).
 </t>
@@ -511,22 +523,92 @@
           <t>Vivaces basses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ajuga reptens
 Aubrieta deltoidea
 Campanula muralis
-Serpolet
-Alpines
-Corbeille d'argent (Arabis alpina)
+Serpolet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rocaille_(jardinage)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rocaille_(jardinage)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vivaces basses</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Alpines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Corbeille d'argent (Arabis alpina)
 Aster des Alpes (Aster Alpinus)
 Corbeille d'or (Aurinia Saxitalis)
 Bruyère alpine (Kramer rot) ou Erica
 Erinus Alpinus
 Gentiane
-Phlox subulata
-Rampantes
-Famille des sedum rampants
+Phlox subulata</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rocaille_(jardinage)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rocaille_(jardinage)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vivaces basses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rampantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Famille des sedum rampants
 Sedum acre
 Sedum alpestre
 Sedum album
@@ -535,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rocaille_(jardinage)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rocaille_(jardinage)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Vivaces hautes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Euphorbe characias
 Gentiana lutea
@@ -567,31 +651,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Rocaille_(jardinage)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rocaille_(jardinage)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Implantation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
